--- a/cse374_hw2/list_plots_timeComparison.xlsx
+++ b/cse374_hw2/list_plots_timeComparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\eclipse\cse374_hw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FF72E8C-0D7D-4751-B9EA-586D2A36DF31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D177A1-1109-4D5F-835E-7869BEC2D29C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F721F55A-950F-4959-95F1-207719FDD1D6}"/>
+    <workbookView xWindow="600" yWindow="510" windowWidth="25725" windowHeight="14220" xr2:uid="{F721F55A-950F-4959-95F1-207719FDD1D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -570,10 +570,10 @@
                   <c:v>6.45</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.58</c:v>
+                  <c:v>7.38</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.2899999999999991</c:v>
+                  <c:v>8.34</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>9.2899999999999991</c:v>
@@ -582,7 +582,7 @@
                   <c:v>10.36</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.4</c:v>
+                  <c:v>11.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1890,7 +1890,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.58</v>
+        <v>7.38</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.2899999999999991</v>
+        <v>8.34</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.4</v>
+        <v>11.59</v>
       </c>
       <c r="D21">
         <v>0</v>
